--- a/TestDatas/cases.xlsx
+++ b/TestDatas/cases.xlsx
@@ -1116,10 +1116,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C6" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C6" r:id="rId4"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C6" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C6" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C6" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C6" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C6" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C6" r:id="rId12"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1549,10 +1557,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C10" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C10" r:id="rId4"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C10" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C10" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C10" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C10" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C10" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C10" r:id="rId12"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1565,7 +1581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -1705,10 +1721,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId4"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId12"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2069,14 +2093,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId7"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C5" r:id="rId8"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId7"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C5" r:id="rId8"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId21"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId22"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId23"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C5" r:id="rId24"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId21"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId22"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId23"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C5" r:id="rId24"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId21"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId22"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId23"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C5" r:id="rId24"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId21"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId22"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId23"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C5" r:id="rId24"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId21"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId22"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId23"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C5" r:id="rId24"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C2" r:id="rId21"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C3" r:id="rId22"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C4" r:id="rId23"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="C5" r:id="rId24"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
